--- a/gipt_dash_data_prep/iea_region_code.xlsx
+++ b/gipt_dash_data_prep/iea_region_code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\gipt-dashboard\gipt_dash_data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E62746-F9DF-4D84-BE4D-CE6D3D28941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EAC8D0-2067-4C75-ADD2-E78C65FF3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{CDA8FE9F-BF09-4E0C-B848-93C3AC0FA49F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDA8FE9F-BF09-4E0C-B848-93C3AC0FA49F}"/>
   </bookViews>
   <sheets>
     <sheet name="iea code" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iea code'!$A$1:$X$511</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$K$1:$M$511</definedName>
-    <definedName name="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates" hidden="1">[1]!Dates</definedName>
+    <definedName name="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates1" hidden="1">[1]!Dates</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">Sheet2!$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -234,7 +234,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Dates-e214e92b-be21-480b-9a2a-a8271c5afb57">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="293">
   <si>
     <t>area</t>
   </si>
@@ -1643,11 +1643,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B976D7F1-4FF2-4278-9EDD-B741475C9B2B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1724,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1747,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1767,7 +1768,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1815,7 +1816,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1839,7 +1840,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1887,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1985,7 +1986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2153,7 +2154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2177,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2225,7 +2226,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2245,7 +2246,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2337,7 +2338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2361,7 +2362,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2409,7 +2410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2479,7 +2480,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2501,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2545,7 +2546,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2670,7 +2671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2721,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2891,7 +2892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2923,7 +2924,7 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3088,7 +3089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3103,7 +3104,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3254,7 +3255,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3269,7 +3270,7 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3301,7 +3302,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3352,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3437,7 +3438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3573,7 +3574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3621,7 +3622,7 @@
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3651,7 +3652,7 @@
       </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3665,8 +3666,11 @@
         <v>15</v>
       </c>
       <c r="H102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3722,7 +3726,7 @@
       </c>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3737,7 +3741,7 @@
       </c>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3752,7 +3756,7 @@
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3767,7 +3771,7 @@
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3782,7 +3786,7 @@
       </c>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3815,7 +3819,7 @@
       </c>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3830,7 +3834,7 @@
       </c>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3845,7 +3849,7 @@
       </c>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3860,7 +3864,7 @@
       </c>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3875,7 +3879,7 @@
       </c>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3890,7 +3894,7 @@
       </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3905,7 +3909,7 @@
       </c>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3920,7 +3924,7 @@
       </c>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3935,7 +3939,7 @@
       </c>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3950,7 +3954,7 @@
       </c>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3965,7 +3969,7 @@
       </c>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3980,7 +3984,7 @@
       </c>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3995,7 +3999,7 @@
       </c>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4010,7 +4014,7 @@
       </c>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4025,7 +4029,7 @@
       </c>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4093,7 +4097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4146,7 +4150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4178,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4196,7 +4200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4362,7 +4366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4390,7 +4394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4441,7 +4445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4861,7 +4865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4959,7 +4963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5197,7 +5201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5298,7 +5302,7 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5315,7 +5319,7 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5332,7 +5336,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5352,7 +5356,7 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5369,7 +5373,7 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5386,7 +5390,7 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5403,7 +5407,7 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5420,7 +5424,7 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5437,7 +5441,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5454,7 +5458,7 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5471,7 +5475,7 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5491,7 +5495,7 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5508,7 +5512,7 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5522,7 +5526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5601,7 +5605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5615,7 +5619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5629,7 +5633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5657,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5671,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5727,7 +5731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5769,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5783,7 +5787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5797,7 +5801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5811,7 +5815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5825,7 +5829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5839,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5906,7 +5910,7 @@
       </c>
       <c r="T250" s="1"/>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="T251" s="1"/>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5936,7 +5940,7 @@
       </c>
       <c r="T252" s="1"/>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5951,7 +5955,7 @@
       </c>
       <c r="T253" s="1"/>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5966,7 +5970,7 @@
       </c>
       <c r="T254" s="1"/>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5981,7 +5985,7 @@
       </c>
       <c r="T255" s="1"/>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="T256" s="1"/>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6011,7 +6015,7 @@
       </c>
       <c r="T257" s="1"/>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6029,7 +6033,7 @@
       </c>
       <c r="T258" s="1"/>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6044,7 +6048,7 @@
       </c>
       <c r="T259" s="1"/>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6059,7 +6063,7 @@
       </c>
       <c r="T260" s="1"/>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6074,7 +6078,7 @@
       </c>
       <c r="T261" s="1"/>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6089,7 +6093,7 @@
       </c>
       <c r="T262" s="1"/>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6104,7 +6108,7 @@
       </c>
       <c r="T263" s="1"/>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6119,7 +6123,7 @@
       </c>
       <c r="T264" s="1"/>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6134,7 +6138,7 @@
       </c>
       <c r="T265" s="1"/>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6149,7 +6153,7 @@
       </c>
       <c r="T266" s="1"/>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6164,7 +6168,7 @@
       </c>
       <c r="T267" s="1"/>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6179,7 +6183,7 @@
       </c>
       <c r="T268" s="1"/>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6194,7 +6198,7 @@
       </c>
       <c r="T269" s="1"/>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6209,7 +6213,7 @@
       </c>
       <c r="T270" s="1"/>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6224,7 +6228,7 @@
       </c>
       <c r="T271" s="1"/>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6239,7 +6243,7 @@
       </c>
       <c r="T272" s="1"/>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6254,7 +6258,7 @@
       </c>
       <c r="T273" s="1"/>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6269,7 +6273,7 @@
       </c>
       <c r="T274" s="1"/>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6284,7 +6288,7 @@
       </c>
       <c r="T275" s="1"/>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6299,7 +6303,7 @@
       </c>
       <c r="T276" s="1"/>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6314,7 +6318,7 @@
       </c>
       <c r="T277" s="1"/>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6329,7 +6333,7 @@
       </c>
       <c r="T278" s="1"/>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6344,7 +6348,7 @@
       </c>
       <c r="T279" s="1"/>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6359,7 +6363,7 @@
       </c>
       <c r="T280" s="1"/>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6374,7 +6378,7 @@
       </c>
       <c r="T281" s="1"/>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6389,7 +6393,7 @@
       </c>
       <c r="T282" s="1"/>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6404,7 +6408,7 @@
       </c>
       <c r="T283" s="1"/>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="T284" s="1"/>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6434,7 +6438,7 @@
       </c>
       <c r="T285" s="1"/>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6449,7 +6453,7 @@
       </c>
       <c r="T286" s="1"/>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6464,7 +6468,7 @@
       </c>
       <c r="T287" s="1"/>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6479,7 +6483,7 @@
       </c>
       <c r="T288" s="1"/>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6494,7 +6498,7 @@
       </c>
       <c r="T289" s="1"/>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6509,7 +6513,7 @@
       </c>
       <c r="T290" s="1"/>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6524,7 +6528,7 @@
       </c>
       <c r="T291" s="1"/>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6539,7 +6543,7 @@
       </c>
       <c r="T292" s="1"/>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6554,7 +6558,7 @@
       </c>
       <c r="T293" s="1"/>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6569,7 +6573,7 @@
       </c>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6584,7 +6588,7 @@
       </c>
       <c r="T295" s="1"/>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6599,7 +6603,7 @@
       </c>
       <c r="T296" s="1"/>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6614,7 +6618,7 @@
       </c>
       <c r="T297" s="1"/>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6629,7 +6633,7 @@
       </c>
       <c r="T298" s="1"/>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6644,7 +6648,7 @@
       </c>
       <c r="T299" s="1"/>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6659,7 +6663,7 @@
       </c>
       <c r="T300" s="1"/>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6674,7 +6678,7 @@
       </c>
       <c r="T301" s="1"/>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6689,7 +6693,7 @@
       </c>
       <c r="T302" s="1"/>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6704,7 +6708,7 @@
       </c>
       <c r="T303" s="1"/>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6732,7 +6736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6774,7 +6778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6791,7 +6795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6808,7 +6812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6836,7 +6840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6850,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6881,7 +6885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6923,7 +6927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6937,7 +6941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6951,7 +6955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6965,7 +6969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6979,7 +6983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7007,7 +7011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7055,7 +7059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7086,7 +7090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7145,7 +7149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7187,7 +7191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7204,7 +7208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7308,7 +7312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7322,7 +7326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7339,7 +7343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7356,7 +7360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7401,7 +7405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7446,7 +7450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7474,7 +7478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7502,7 +7506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7519,7 +7523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -7550,7 +7554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7564,7 +7568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7578,7 +7582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7592,7 +7596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7609,7 +7613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7626,7 +7630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7657,7 +7661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7692,7 +7696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7706,7 +7710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7737,7 +7741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7751,7 +7755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7765,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7810,7 +7814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7886,7 +7890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7900,7 +7904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7914,7 +7918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7931,7 +7935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7945,7 +7949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7959,7 +7963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7987,7 +7991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8015,7 +8019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8029,7 +8033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8043,7 +8047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8074,7 +8078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8102,7 +8106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8119,7 +8123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8136,7 +8140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8167,7 +8171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -8181,7 +8185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -8223,7 +8227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -8237,7 +8241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -8251,7 +8255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -8265,7 +8269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -8279,7 +8283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -8293,7 +8297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -8307,7 +8311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -8321,7 +8325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -8349,7 +8353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -8363,7 +8367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -8377,7 +8381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -8391,7 +8395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -8405,7 +8409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -8419,7 +8423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -8433,7 +8437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -8447,7 +8451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -8475,7 +8479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -8503,7 +8507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8517,7 +8521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -8531,7 +8535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -8545,7 +8549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -8573,7 +8577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -8587,7 +8591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -8601,7 +8605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -8615,7 +8619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -8629,7 +8633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -8657,7 +8661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -8671,7 +8675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -8685,7 +8689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -8699,7 +8703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -8713,7 +8717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -8727,7 +8731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -8741,7 +8745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -8769,7 +8773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -8783,7 +8787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -8797,7 +8801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -8811,7 +8815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -8825,7 +8829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -8853,7 +8857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -8867,7 +8871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -8881,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -8895,7 +8899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -8909,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -8923,7 +8927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -8951,7 +8955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -8965,7 +8969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -8979,7 +8983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -8993,7 +8997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -9007,7 +9011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -9021,7 +9025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -9063,7 +9067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -9077,7 +9081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -9091,7 +9095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -9105,7 +9109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -9119,7 +9123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -9133,7 +9137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -9147,7 +9151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -9178,7 +9182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -9223,7 +9227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -9327,7 +9331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -9341,7 +9345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -9372,7 +9376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -9400,7 +9404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -9417,7 +9421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -9462,7 +9466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -9476,7 +9480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -9490,7 +9494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -9504,7 +9508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -9518,7 +9522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -9532,7 +9536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -9546,7 +9550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -9591,7 +9595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -9612,7 +9616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -9640,7 +9644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -9657,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -9742,7 +9746,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X511" xr:uid="{B976D7F1-4FF2-4278-9EDD-B741475C9B2B}"/>
+  <autoFilter ref="A1:X511" xr:uid="{B976D7F1-4FF2-4278-9EDD-B741475C9B2B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="China"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/gipt_dash_data_prep/iea_region_code.xlsx
+++ b/gipt_dash_data_prep/iea_region_code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\GitHub\gipt-dashboard\gipt_dash_data_prep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EAC8D0-2067-4C75-ADD2-E78C65FF3601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50B9F71-949A-4F4E-A7B9-958754D4D01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDA8FE9F-BF09-4E0C-B848-93C3AC0FA49F}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'iea code'!$A$1:$X$511</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$K$1:$M$511</definedName>
-    <definedName name="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates1" hidden="1">[1]!Dates</definedName>
+    <definedName name="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates" hidden="1">[1]!Dates</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">Sheet2!$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -234,7 +234,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Dates-e214e92b-be21-480b-9a2a-a8271c5afb57">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_QueryTool.draft.190729.xlsbDates"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1248,6 +1248,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
       <xxl21:absoluteUrl r:id="rId2"/>
+      <xxl21:relativeUrl r:id="rId3"/>
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Reference"/>
@@ -1643,12 +1644,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B976D7F1-4FF2-4278-9EDD-B741475C9B2B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X511"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,7 +1724,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1768,7 +1768,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1840,7 +1840,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2362,7 +2362,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3270,7 +3270,7 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3879,7 +3879,7 @@
       </c>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3894,7 +3894,7 @@
       </c>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3954,7 +3954,7 @@
       </c>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4097,7 +4097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -5302,7 +5302,7 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -5356,7 +5356,7 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -5373,7 +5373,7 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -5390,7 +5390,7 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -5407,7 +5407,7 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -5441,7 +5441,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -5458,7 +5458,7 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -5512,7 +5512,7 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="241" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="242" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="243" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="244" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="T250" s="1"/>
     </row>
-    <row r="251" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="T251" s="1"/>
     </row>
-    <row r="252" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="T252" s="1"/>
     </row>
-    <row r="253" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="T253" s="1"/>
     </row>
-    <row r="254" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="T254" s="1"/>
     </row>
-    <row r="255" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="T255" s="1"/>
     </row>
-    <row r="256" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="T256" s="1"/>
     </row>
-    <row r="257" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -6015,7 +6015,7 @@
       </c>
       <c r="T257" s="1"/>
     </row>
-    <row r="258" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="T258" s="1"/>
     </row>
-    <row r="259" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="T259" s="1"/>
     </row>
-    <row r="260" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="T260" s="1"/>
     </row>
-    <row r="261" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="T261" s="1"/>
     </row>
-    <row r="262" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -6093,7 +6093,7 @@
       </c>
       <c r="T262" s="1"/>
     </row>
-    <row r="263" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -6108,7 +6108,7 @@
       </c>
       <c r="T263" s="1"/>
     </row>
-    <row r="264" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="T264" s="1"/>
     </row>
-    <row r="265" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="T265" s="1"/>
     </row>
-    <row r="266" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="T266" s="1"/>
     </row>
-    <row r="267" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -6168,7 +6168,7 @@
       </c>
       <c r="T267" s="1"/>
     </row>
-    <row r="268" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="T268" s="1"/>
     </row>
-    <row r="269" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="T269" s="1"/>
     </row>
-    <row r="270" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="T270" s="1"/>
     </row>
-    <row r="271" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="T271" s="1"/>
     </row>
-    <row r="272" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="T272" s="1"/>
     </row>
-    <row r="273" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -6258,7 +6258,7 @@
       </c>
       <c r="T273" s="1"/>
     </row>
-    <row r="274" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="T274" s="1"/>
     </row>
-    <row r="275" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -6288,7 +6288,7 @@
       </c>
       <c r="T275" s="1"/>
     </row>
-    <row r="276" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -6303,7 +6303,7 @@
       </c>
       <c r="T276" s="1"/>
     </row>
-    <row r="277" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -6318,7 +6318,7 @@
       </c>
       <c r="T277" s="1"/>
     </row>
-    <row r="278" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="T278" s="1"/>
     </row>
-    <row r="279" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="T279" s="1"/>
     </row>
-    <row r="280" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="T280" s="1"/>
     </row>
-    <row r="281" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="T281" s="1"/>
     </row>
-    <row r="282" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="T282" s="1"/>
     </row>
-    <row r="283" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -6408,7 +6408,7 @@
       </c>
       <c r="T283" s="1"/>
     </row>
-    <row r="284" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="T284" s="1"/>
     </row>
-    <row r="285" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="T285" s="1"/>
     </row>
-    <row r="286" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -6453,7 +6453,7 @@
       </c>
       <c r="T286" s="1"/>
     </row>
-    <row r="287" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
       <c r="T287" s="1"/>
     </row>
-    <row r="288" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="T288" s="1"/>
     </row>
-    <row r="289" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="T289" s="1"/>
     </row>
-    <row r="290" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="T290" s="1"/>
     </row>
-    <row r="291" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="T291" s="1"/>
     </row>
-    <row r="292" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="T292" s="1"/>
     </row>
-    <row r="293" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="T293" s="1"/>
     </row>
-    <row r="294" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="T294" s="1"/>
     </row>
-    <row r="295" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="T295" s="1"/>
     </row>
-    <row r="296" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="T296" s="1"/>
     </row>
-    <row r="297" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="T297" s="1"/>
     </row>
-    <row r="298" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="T298" s="1"/>
     </row>
-    <row r="299" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="T299" s="1"/>
     </row>
-    <row r="300" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="T300" s="1"/>
     </row>
-    <row r="301" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="T301" s="1"/>
     </row>
-    <row r="302" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="T302" s="1"/>
     </row>
-    <row r="303" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -6708,7 +6708,7 @@
       </c>
       <c r="T303" s="1"/>
     </row>
-    <row r="304" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="305" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="306" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="307" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="309" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="310" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -6927,7 +6927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
@@ -6941,7 +6941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -6955,7 +6955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -7090,7 +7090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
@@ -7163,7 +7163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="341" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="342" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="343" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="345" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="348" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="349" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="350" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="351" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>352</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="354" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>353</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="355" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="356" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>355</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="357" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>356</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="358" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>357</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="359" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>358</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="360" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>359</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="361" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>360</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>361</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="363" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>362</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>363</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="365" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>364</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="366" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>365</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="367" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>366</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="368" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>367</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="369" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>368</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>369</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="371" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>370</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="372" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>371</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="373" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>372</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="374" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>373</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="375" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>374</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>375</v>
       </c>
@@ -7797,7 +7797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>376</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="378" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>377</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="379" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>378</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>379</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="381" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>380</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="382" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>381</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="383" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>382</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="384" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>383</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="385" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>384</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="386" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>385</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="387" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>386</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>387</v>
       </c>
@@ -7977,7 +7977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>388</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="390" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>389</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="391" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>390</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>391</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="393" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>392</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="394" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>393</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="395" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>394</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="396" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>395</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="397" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>396</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="398" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>397</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="399" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>398</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="400" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>399</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="401" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>400</v>
       </c>
@@ -8171,7 +8171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="402" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>401</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="403" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>402</v>
       </c>
@@ -8199,7 +8199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="404" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>403</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>404</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="406" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>405</v>
       </c>
@@ -8241,7 +8241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="407" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>406</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>407</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>408</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="410" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>409</v>
       </c>
@@ -8297,7 +8297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="411" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>410</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="412" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>411</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="413" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>412</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="414" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="415" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>414</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="416" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>415</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="417" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>416</v>
       </c>
@@ -8395,7 +8395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>417</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="419" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>418</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>419</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="421" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>420</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>421</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="423" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>422</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>423</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="425" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>424</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="426" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>425</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>426</v>
       </c>
@@ -8535,7 +8535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="428" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>427</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="429" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>428</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>429</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>430</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="432" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>431</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>432</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>433</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="435" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>434</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>435</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>436</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="438" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>437</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="439" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>438</v>
       </c>
@@ -8703,7 +8703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>439</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="441" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>440</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="442" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>441</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>442</v>
       </c>
@@ -8759,7 +8759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="444" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>443</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="445" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>444</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="446" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>445</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="447" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>446</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="448" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>447</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="449" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>448</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="450" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>449</v>
       </c>
@@ -8857,7 +8857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>450</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="452" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>451</v>
       </c>
@@ -8885,7 +8885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="453" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>452</v>
       </c>
@@ -8899,7 +8899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>453</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>454</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>455</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="457" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>456</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="458" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>457</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="459" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>458</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="460" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>459</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="461" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>460</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="462" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>461</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>462</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>463</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="465" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>464</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="466" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>465</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="467" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>466</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="468" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>467</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="469" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>468</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>469</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="471" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>470</v>
       </c>
@@ -9151,7 +9151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="472" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>471</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="473" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>472</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="474" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>473</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="475" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>474</v>
       </c>
@@ -9213,7 +9213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="476" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>475</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>476</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="478" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>477</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="479" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>478</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="480" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>479</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>480</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="482" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>481</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="483" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>482</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="484" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>483</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>484</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="487" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>486</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>487</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>488</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>489</v>
       </c>
@@ -9438,7 +9438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>490</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>491</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>492</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>493</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>494</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>495</v>
       </c>
@@ -9522,7 +9522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>496</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>497</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>498</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>499</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>500</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="502" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>501</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="503" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>502</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="504" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>503</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="505" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>504</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="506" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>505</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>506</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="508" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>507</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="509" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>508</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>509</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="511" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>510</v>
       </c>
@@ -9746,13 +9746,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X511" xr:uid="{B976D7F1-4FF2-4278-9EDD-B741475C9B2B}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="China"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
